--- a/data/trans_camb/P8_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P8_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,47</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 11,23</t>
+          <t>-6,31; 10,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 9,32</t>
+          <t>-17,69; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 8,45</t>
+          <t>-17,69; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,74; 0,0</t>
+          <t>-4,04; 15,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 2,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 1,63</t>
+          <t>0,0; 10,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 2,3</t>
+          <t>0,0; 8,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 2,32</t>
+          <t>0,0; 9,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 1,63</t>
+          <t>-3,07; 4,65</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 3,81</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 1,66</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 10,33</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>154,2%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>148,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-67,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-84,87%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-47,7%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-44,66%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-57,98%</t>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>41,77%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-37,19%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>263,21%</t>
         </is>
       </c>
     </row>
@@ -834,6 +903,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,08</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 7,55</t>
+          <t>-9,17; 7,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 11,63</t>
+          <t>-6,43; 13,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 11,29</t>
+          <t>-5,19; 16,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,52</t>
+          <t>-6,71; 13,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,89</t>
+          <t>0,0; 9,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,6</t>
+          <t>0,0; 11,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 4,48</t>
+          <t>0,0; 12,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 7,27</t>
+          <t>1,23; 12,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 7,56</t>
+          <t>-3,18; 5,33</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 9,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 10,23</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 9,7</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,89%</t>
+          <t>-4,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>55,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>99,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>49,87%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,4%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,4%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>69,06%</t>
+          <t>40,76%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>148,81%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>205,44%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>165,34%</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1136,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,21; 226,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 327,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,81; 326,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,17 +1166,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,63; 278,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,34; 447,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-44,68; 487,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-82,9; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 4,97</t>
+          <t>-9,87; 9,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 8,06</t>
+          <t>-8,66; 12,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 7,93</t>
+          <t>-7,75; 13,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,1</t>
+          <t>-6,54; 16,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 4,25</t>
+          <t>-2,71; 1,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 4,02</t>
+          <t>-1,63; 5,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,32</t>
+          <t>-1,64; 5,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 4,6</t>
+          <t>-1,47; 6,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,07</t>
+          <t>-4,46; 4,03</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 6,25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 7,31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,84; 8,22</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,58%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>43,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>62,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>149,7%</t>
+          <t>-3,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>138,2%</t>
+          <t>138,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-12,78%</t>
+          <t>144,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>139,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>46,38%</t>
+          <t>-4,74%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>42,02%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>61,93%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>84,86%</t>
         </is>
       </c>
     </row>
@@ -1223,22 +1412,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,29; 233,13</t>
+          <t>-88,2; 548,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,09; 365,15</t>
+          <t>-77,38; 578,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,53; 355,71</t>
+          <t>-66,54; 621,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,66; 645,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1253,17 +1442,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-74,68; 160,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,52; 310,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 354,82</t>
+          <t>-81,37; 299,71</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-68,51; 439,3</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-59,22; 483,35</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-42,23; 600,08</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 8,77</t>
+          <t>-5,06; 10,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 8,27</t>
+          <t>-5,21; 9,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 8,34</t>
+          <t>-5,27; 9,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 4,03</t>
+          <t>-4,54; 12,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 4,86</t>
+          <t>-6,69; 5,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,91</t>
+          <t>-6,53; 6,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,94</t>
+          <t>-6,2; 6,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 4,98</t>
+          <t>-3,97; 9,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 4,78</t>
+          <t>-3,87; 6,3</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 6,24</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 6,39</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 8,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>47,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>61,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>50,95%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>20,67%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21,67%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>55,23%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,48; 214,95</t>
+          <t>-66,52; 604,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 208,72</t>
+          <t>-65,48; 608,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,74; 205,74</t>
+          <t>-66,95; 600,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 135,34</t>
+          <t>-62,26; 650,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 167,45</t>
+          <t>-75,71; 230,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,94; 129,49</t>
+          <t>-75,09; 258,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 119,57</t>
+          <t>-73,49; 260,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-41,16; 119,35</t>
+          <t>-52,44; 380,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 117,16</t>
+          <t>-52,87; 196,84</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-51,2; 192,96</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-50,31; 198,95</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-29,92; 269,11</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 15,22</t>
+          <t>-13,23; 21,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 14,75</t>
+          <t>-13,06; 22,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 12,44</t>
+          <t>-14,55; 17,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 5,89</t>
+          <t>-9,76; 21,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 5,07</t>
+          <t>-15,15; 11,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 6,81</t>
+          <t>-15,47; 11,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 8,05</t>
+          <t>-13,21; 15,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 7,35</t>
+          <t>-5,21; 25,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 7,66</t>
+          <t>-10,73; 13,46</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-10,61; 14,57</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-10,01; 12,68</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 20,09</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-17,81%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-21,91%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-11,96%</t>
+          <t>-15,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-10,05%</t>
+          <t>68,9%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-0,27%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>78,53%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-77,46; 275,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-76,11; 263,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-76,27; 233,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-63,53; 65,51</t>
+          <t>-93,97; 1004,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-64,41; 62,98</t>
+          <t>-76,55; 181,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,06; 74,3</t>
+          <t>-76,97; 171,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-51,74; 98,63</t>
+          <t>-66,25; 217,08</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-53,45; 90,41</t>
+          <t>-29,37; 353,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-49,9; 90,2</t>
+          <t>-71,92; 205,51</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-71,15; 229,17</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-68,2; 193,47</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-32,13; 294,31</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 8,55</t>
+          <t>-4,75; 7,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 8,11</t>
+          <t>-7,02; 4,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 10,0</t>
+          <t>-4,76; 7,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 10,28</t>
+          <t>-4,68; 11,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 8,82</t>
+          <t>-18,36; 15,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 7,58</t>
+          <t>-18,47; 16,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 6,27</t>
+          <t>-18,25; 16,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 5,42</t>
+          <t>-21,15; 13,88</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 5,33</t>
+          <t>-12,02; 9,38</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-11,99; 9,29</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-11,66; 9,49</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 9,5</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-7,22%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-15,84%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-21,59%</t>
+          <t>-9,39%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>-10,63%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>-15,53%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-12,78%</t>
+          <t>-7,56%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-8,45%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-7,82%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-0,44%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-76,82; 265,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-77,24; 253,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,37; 299,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-51,71; 76,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,06; 65,69</t>
+          <t>-59,62; 113,68</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-63,9; 53,37</t>
+          <t>-60,17; 110,39</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-44,15; 58,87</t>
+          <t>-59,25; 118,39</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-48,18; 48,71</t>
+          <t>-66,01; 90,52</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-52,09; 47,95</t>
+          <t>-64,58; 104,37</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-64,46; 104,35</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-62,11; 114,19</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-59,59; 102,4</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3,61</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 3,54</t>
+          <t>-3,43; 5,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,19</t>
+          <t>-3,04; 5,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,84</t>
+          <t>-3,16; 5,21</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,35</t>
+          <t>-0,99; 8,26</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 1,75</t>
+          <t>-3,05; 3,14</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,73</t>
+          <t>-2,37; 4,18</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,48</t>
+          <t>-2,09; 4,51</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,09</t>
+          <t>0,31; 7,87</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,96</t>
+          <t>-2,6; 2,84</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 3,69</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 3,71</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 6,79</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-19,73%</t>
+          <t>65,12%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-13,5%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-14,53%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-8,44%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>59,88%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>61,91%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 65,31</t>
+          <t>-48,01; 151,17</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 77,71</t>
+          <t>-45,98; 161,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 72,88</t>
+          <t>-44,49; 143,95</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 26,22</t>
+          <t>-15,4; 228,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 33,71</t>
+          <t>-42,18; 74,08</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-43,87; 33,7</t>
+          <t>-32,05; 91,31</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 26,51</t>
+          <t>-29,25; 103,86</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 36,59</t>
+          <t>2,8; 180,32</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 34,36</t>
+          <t>-35,81; 60,5</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-28,76; 82,39</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-25,33; 81,61</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 149,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
